--- a/作業フォルダー/LUPPY/Luupy自動貼り換え作業/bin/Debug/LUPPY管理簿.xlsx
+++ b/作業フォルダー/LUPPY/Luupy自動貼り換え作業/bin/Debug/LUPPY管理簿.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LUPPY\Luupy自動貼り換え作業\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\作業フォルダー\LUPPY\Luupy自動貼り換え作業\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9950305D-D098-4A48-B78F-B786953EBFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA9411B-E26D-4D79-B3FA-F65226C38BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一覧" sheetId="1" r:id="rId1"/>
     <sheet name="広告設定" sheetId="3" r:id="rId2"/>
+    <sheet name="ログイン情報" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>ジャンル</t>
     <phoneticPr fontId="1"/>
@@ -121,6 +122,41 @@
   <si>
     <t>https://members.luppy-media-owner.com/wp-content/uploads/2023/04/LUPPY0405.png</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <rPh sb="0" eb="2">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイト管理画面</t>
+    <rPh sb="3" eb="7">
+      <t>カンリガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会員画面</t>
+  </si>
+  <si>
+    <t>https://members.luppy-media-owner.com/welcome/</t>
+  </si>
+  <si>
+    <t>Yu19940613..</t>
   </si>
 </sst>
 </file>
@@ -707,4 +743,72 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D93AA9-EB2E-4191-A695-6775D6681873}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{6B81A97D-34C3-4A2F-9974-5BE7D561A0B8}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{79CE8DF5-87AA-4E76-ACD4-07231D2C4B42}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/作業フォルダー/LUPPY/Luupy自動貼り換え作業/bin/Debug/LUPPY管理簿.xlsx
+++ b/作業フォルダー/LUPPY/Luupy自動貼り換え作業/bin/Debug/LUPPY管理簿.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\作業フォルダー\LUPPY\Luupy自動貼り換え作業\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA9411B-E26D-4D79-B3FA-F65226C38BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D6F19B-5A25-42F8-A424-DB183AB9E7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -810,5 +810,6 @@
     <hyperlink ref="B3" r:id="rId2" xr:uid="{79CE8DF5-87AA-4E76-ACD4-07231D2C4B42}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/作業フォルダー/LUPPY/Luupy自動貼り換え作業/bin/Debug/LUPPY管理簿.xlsx
+++ b/作業フォルダー/LUPPY/Luupy自動貼り換え作業/bin/Debug/LUPPY管理簿.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\作業フォルダー\LUPPY\Luupy自動貼り換え作業\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D6F19B-5A25-42F8-A424-DB183AB9E7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB890CA-6CC5-4685-8BDF-94AAA676627A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一覧" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>ジャンル</t>
     <phoneticPr fontId="1"/>
@@ -139,13 +139,6 @@
     <t>名称</t>
     <rPh sb="0" eb="2">
       <t>メイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サイト管理画面</t>
-    <rPh sb="3" eb="7">
-      <t>カンリガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -589,7 +582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -747,10 +740,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D93AA9-EB2E-4191-A695-6775D6681873}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -780,36 +773,21 @@
         <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{6B81A97D-34C3-4A2F-9974-5BE7D561A0B8}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{79CE8DF5-87AA-4E76-ACD4-07231D2C4B42}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{79CE8DF5-87AA-4E76-ACD4-07231D2C4B42}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/作業フォルダー/LUPPY/Luupy自動貼り換え作業/bin/Debug/LUPPY管理簿.xlsx
+++ b/作業フォルダー/LUPPY/Luupy自動貼り換え作業/bin/Debug/LUPPY管理簿.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\作業フォルダー\LUPPY\Luupy自動貼り換え作業\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB890CA-6CC5-4685-8BDF-94AAA676627A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FB79F7-3CFD-47C4-970D-5E1A51B28419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一覧" sheetId="1" r:id="rId1"/>
@@ -120,10 +120,6 @@
     <t>私はコーヒー党</t>
   </si>
   <si>
-    <t>https://members.luppy-media-owner.com/wp-content/uploads/2023/04/LUPPY0405.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メールアドレス</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -150,6 +146,9 @@
   </si>
   <si>
     <t>Yu19940613..</t>
+  </si>
+  <si>
+    <t>https://members.luppy-media-owner.com/wp-content/uploads/2023/04/LUPPY0410.png</t>
   </si>
 </sst>
 </file>
@@ -213,7 +212,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -224,20 +223,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -297,7 +290,7 @@
     <tableColumn id="3" xr3:uid="{28B465C0-D7E3-4F18-9E3F-9E1209AA9740}" name="サイトURL" dataCellStyle="ハイパーリンク"/>
     <tableColumn id="4" xr3:uid="{AE967587-4598-4128-A9C7-3F45D3F83E8A}" name="サイト管理URL" dataCellStyle="ハイパーリンク"/>
     <tableColumn id="5" xr3:uid="{2218198F-BE37-45BE-8B09-65B2C51AB3F5}" name="管理サイトID" dataCellStyle="標準"/>
-    <tableColumn id="6" xr3:uid="{44417918-BEBA-4C7A-A54F-AA4767232A3B}" name="管理サイトパスワード" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{44417918-BEBA-4C7A-A54F-AA4767232A3B}" name="管理サイトパスワード" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -307,8 +300,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{96AA712E-1AB1-4CCA-8341-D62D15068B10}" name="テーブル2" displayName="テーブル2" ref="A1:C2" totalsRowShown="0">
   <autoFilter ref="A1:C2" xr:uid="{96AA712E-1AB1-4CCA-8341-D62D15068B10}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{9470B318-6630-4D65-8856-B68D169FCFB6}" name="広告先URL" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{8C9C3F01-D4CA-485A-8019-4C9A55653AAC}" name="広告画像URL" dataDxfId="1" dataCellStyle="標準"/>
+    <tableColumn id="1" xr3:uid="{9470B318-6630-4D65-8856-B68D169FCFB6}" name="広告先URL" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{8C9C3F01-D4CA-485A-8019-4C9A55653AAC}" name="広告画像URL"/>
     <tableColumn id="3" xr3:uid="{67ED5845-2B35-4314-AE5A-4027581E04A2}" name="設定値" dataDxfId="0">
       <calculatedColumnFormula>_xlfn.CONCAT("&lt;a href=""")&amp;A2&amp;_xlfn.CONCAT(""" rel=""noopener"" target=""_blank""&gt;&lt;img src=""")&amp;B2&amp;_xlfn.CONCAT(""" alt="""" /&gt;&lt;/a&gt;")</calculatedColumnFormula>
     </tableColumn>
@@ -582,7 +575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -716,16 +709,16 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="75">
+    <row r="2" spans="1:3" ht="56.25">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>21</v>
+      <c r="B2" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C2" s="3" t="str">
         <f>_xlfn.CONCAT("&lt;a href=""")&amp;A2&amp;_xlfn.CONCAT(""" rel=""noopener"" target=""_blank""&gt;&lt;img src=""")&amp;B2&amp;_xlfn.CONCAT(""" alt="""" /&gt;&lt;/a&gt;")</f>
-        <v>&lt;a href="https://luppy-media-owner.com/0483.html" rel="noopener" target="_blank"&gt;&lt;img src="https://members.luppy-media-owner.com/wp-content/uploads/2023/04/LUPPY0405.png" alt="" /&gt;&lt;/a&gt;</v>
+        <v>&lt;a href="https://luppy-media-owner.com/0483.html" rel="noopener" target="_blank"&gt;&lt;img src="https://members.luppy-media-owner.com/wp-content/uploads/2023/04/LUPPY0410.png" alt="" /&gt;&lt;/a&gt;</v>
       </c>
     </row>
   </sheetData>
@@ -742,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D93AA9-EB2E-4191-A695-6775D6681873}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -756,30 +749,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/作業フォルダー/LUPPY/Luupy自動貼り換え作業/bin/Debug/LUPPY管理簿.xlsx
+++ b/作業フォルダー/LUPPY/Luupy自動貼り換え作業/bin/Debug/LUPPY管理簿.xlsx
@@ -212,7 +212,7 @@
     <x:t>https://luppy-media-owner.com/0483.html</x:t>
   </x:si>
   <x:si>
-    <x:t>https://members.luppy-media-owner.com/wp-content/uploads/2023/04/LUPPY0410.png</x:t>
+    <x:t>https://members.luppy-media-owner.com/wp-content/uploads/2023/06/1-64.png</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -864,13 +864,13 @@
   </x:sheetData>
   <x:phoneticPr fontId="1"/>
   <x:hyperlinks>
-    <x:hyperlink ref="C2" r:id="rId10"/>
-    <x:hyperlink ref="D2" r:id="rId11"/>
-    <x:hyperlink ref="C3" r:id="rId12"/>
-    <x:hyperlink ref="D3" r:id="rId13"/>
-    <x:hyperlink ref="E4" r:id="rId14"/>
-    <x:hyperlink ref="C4" r:id="rId15"/>
-    <x:hyperlink ref="D4" r:id="rId16"/>
+    <x:hyperlink ref="C2" r:id="rId19"/>
+    <x:hyperlink ref="D2" r:id="rId20"/>
+    <x:hyperlink ref="C3" r:id="rId21"/>
+    <x:hyperlink ref="D3" r:id="rId22"/>
+    <x:hyperlink ref="E4" r:id="rId23"/>
+    <x:hyperlink ref="C4" r:id="rId24"/>
+    <x:hyperlink ref="D4" r:id="rId25"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -984,8 +984,8 @@
   </x:sheetData>
   <x:phoneticPr fontId="1"/>
   <x:hyperlinks>
-    <x:hyperlink ref="B2" r:id="rId17"/>
-    <x:hyperlink ref="C2" r:id="rId18"/>
+    <x:hyperlink ref="B2" r:id="rId26"/>
+    <x:hyperlink ref="C2" r:id="rId27"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/作業フォルダー/LUPPY/Luupy自動貼り換え作業/bin/Debug/LUPPY管理簿.xlsx
+++ b/作業フォルダー/LUPPY/Luupy自動貼り換え作業/bin/Debug/LUPPY管理簿.xlsx
@@ -864,13 +864,13 @@
   </x:sheetData>
   <x:phoneticPr fontId="1"/>
   <x:hyperlinks>
-    <x:hyperlink ref="C2" r:id="rId10"/>
-    <x:hyperlink ref="D2" r:id="rId11"/>
-    <x:hyperlink ref="C3" r:id="rId12"/>
-    <x:hyperlink ref="D3" r:id="rId13"/>
-    <x:hyperlink ref="E4" r:id="rId14"/>
-    <x:hyperlink ref="C4" r:id="rId15"/>
-    <x:hyperlink ref="D4" r:id="rId16"/>
+    <x:hyperlink ref="C2" r:id="rId19"/>
+    <x:hyperlink ref="D2" r:id="rId20"/>
+    <x:hyperlink ref="C3" r:id="rId21"/>
+    <x:hyperlink ref="D3" r:id="rId22"/>
+    <x:hyperlink ref="E4" r:id="rId23"/>
+    <x:hyperlink ref="C4" r:id="rId24"/>
+    <x:hyperlink ref="D4" r:id="rId25"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -953,7 +953,7 @@
     <x:col min="4" max="4" width="13.082031" style="0" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:5">
+    <x:row r="1" spans="1:4">
       <x:c r="A1" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
@@ -967,7 +967,7 @@
         <x:v>25</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:5">
+    <x:row r="2" spans="1:4">
       <x:c r="A2" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
@@ -984,8 +984,8 @@
   </x:sheetData>
   <x:phoneticPr fontId="1"/>
   <x:hyperlinks>
-    <x:hyperlink ref="B2" r:id="rId17"/>
-    <x:hyperlink ref="C2" r:id="rId18"/>
+    <x:hyperlink ref="B2" r:id="rId26"/>
+    <x:hyperlink ref="C2" r:id="rId27"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/作業フォルダー/LUPPY/Luupy自動貼り換え作業/bin/Debug/LUPPY管理簿.xlsx
+++ b/作業フォルダー/LUPPY/Luupy自動貼り換え作業/bin/Debug/LUPPY管理簿.xlsx
@@ -212,7 +212,7 @@
     <x:t>https://luppy-media-owner.com/0483.html</x:t>
   </x:si>
   <x:si>
-    <x:t>https://members.luppy-media-owner.com/wp-content/uploads/2023/07/LUPPY0616-3.png</x:t>
+    <x:t>https://members.luppy-media-owner.com/wp-content/uploads/2023/08/LUPPY0801.png</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -864,13 +864,13 @@
   </x:sheetData>
   <x:phoneticPr fontId="1"/>
   <x:hyperlinks>
-    <x:hyperlink ref="C2" r:id="rId19"/>
-    <x:hyperlink ref="D2" r:id="rId20"/>
-    <x:hyperlink ref="C3" r:id="rId21"/>
-    <x:hyperlink ref="D3" r:id="rId22"/>
-    <x:hyperlink ref="E4" r:id="rId23"/>
-    <x:hyperlink ref="C4" r:id="rId24"/>
-    <x:hyperlink ref="D4" r:id="rId25"/>
+    <x:hyperlink ref="C2" r:id="rId28"/>
+    <x:hyperlink ref="D2" r:id="rId29"/>
+    <x:hyperlink ref="C3" r:id="rId30"/>
+    <x:hyperlink ref="D3" r:id="rId31"/>
+    <x:hyperlink ref="E4" r:id="rId32"/>
+    <x:hyperlink ref="C4" r:id="rId33"/>
+    <x:hyperlink ref="D4" r:id="rId34"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -984,8 +984,8 @@
   </x:sheetData>
   <x:phoneticPr fontId="1"/>
   <x:hyperlinks>
-    <x:hyperlink ref="B2" r:id="rId26"/>
-    <x:hyperlink ref="C2" r:id="rId27"/>
+    <x:hyperlink ref="B2" r:id="rId35"/>
+    <x:hyperlink ref="C2" r:id="rId36"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/作業フォルダー/LUPPY/Luupy自動貼り換え作業/bin/Debug/LUPPY管理簿.xlsx
+++ b/作業フォルダー/LUPPY/Luupy自動貼り換え作業/bin/Debug/LUPPY管理簿.xlsx
@@ -212,7 +212,7 @@
     <x:t>https://luppy-media-owner.com/0483.html</x:t>
   </x:si>
   <x:si>
-    <x:t>https://members.luppy-media-owner.com/wp-content/uploads/2023/10/LUPPY1011.png</x:t>
+    <x:t>https://members.luppy-media-owner.com/wp-content/uploads/2023/11/LUPPY231106mine.png</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -864,13 +864,13 @@
   </x:sheetData>
   <x:phoneticPr fontId="1"/>
   <x:hyperlinks>
-    <x:hyperlink ref="C2" r:id="rId10"/>
-    <x:hyperlink ref="D2" r:id="rId11"/>
-    <x:hyperlink ref="C3" r:id="rId12"/>
-    <x:hyperlink ref="D3" r:id="rId13"/>
-    <x:hyperlink ref="E4" r:id="rId14"/>
-    <x:hyperlink ref="C4" r:id="rId15"/>
-    <x:hyperlink ref="D4" r:id="rId16"/>
+    <x:hyperlink ref="C2" r:id="rId19"/>
+    <x:hyperlink ref="D2" r:id="rId20"/>
+    <x:hyperlink ref="C3" r:id="rId21"/>
+    <x:hyperlink ref="D3" r:id="rId22"/>
+    <x:hyperlink ref="E4" r:id="rId23"/>
+    <x:hyperlink ref="C4" r:id="rId24"/>
+    <x:hyperlink ref="D4" r:id="rId25"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -984,8 +984,8 @@
   </x:sheetData>
   <x:phoneticPr fontId="1"/>
   <x:hyperlinks>
-    <x:hyperlink ref="B2" r:id="rId17"/>
-    <x:hyperlink ref="C2" r:id="rId18"/>
+    <x:hyperlink ref="B2" r:id="rId26"/>
+    <x:hyperlink ref="C2" r:id="rId27"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/作業フォルダー/LUPPY/Luupy自動貼り換え作業/bin/Debug/LUPPY管理簿.xlsx
+++ b/作業フォルダー/LUPPY/Luupy自動貼り換え作業/bin/Debug/LUPPY管理簿.xlsx
@@ -212,7 +212,7 @@
     <x:t>https://luppy-media-owner.com/0483.html</x:t>
   </x:si>
   <x:si>
-    <x:t>https://members.luppy-media-owner.com/wp-content/uploads/2023/11/LUPPY231106mine.png</x:t>
+    <x:t>https://members.luppy-media-owner.com/wp-content/uploads/2023/12/LUPPY231207wek.png</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -864,13 +864,13 @@
   </x:sheetData>
   <x:phoneticPr fontId="1"/>
   <x:hyperlinks>
-    <x:hyperlink ref="C2" r:id="rId19"/>
-    <x:hyperlink ref="D2" r:id="rId20"/>
-    <x:hyperlink ref="C3" r:id="rId21"/>
-    <x:hyperlink ref="D3" r:id="rId22"/>
-    <x:hyperlink ref="E4" r:id="rId23"/>
-    <x:hyperlink ref="C4" r:id="rId24"/>
-    <x:hyperlink ref="D4" r:id="rId25"/>
+    <x:hyperlink ref="C2" r:id="rId28"/>
+    <x:hyperlink ref="D2" r:id="rId29"/>
+    <x:hyperlink ref="C3" r:id="rId30"/>
+    <x:hyperlink ref="D3" r:id="rId31"/>
+    <x:hyperlink ref="E4" r:id="rId32"/>
+    <x:hyperlink ref="C4" r:id="rId33"/>
+    <x:hyperlink ref="D4" r:id="rId34"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -984,8 +984,8 @@
   </x:sheetData>
   <x:phoneticPr fontId="1"/>
   <x:hyperlinks>
-    <x:hyperlink ref="B2" r:id="rId26"/>
-    <x:hyperlink ref="C2" r:id="rId27"/>
+    <x:hyperlink ref="B2" r:id="rId35"/>
+    <x:hyperlink ref="C2" r:id="rId36"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/作業フォルダー/LUPPY/Luupy自動貼り換え作業/bin/Debug/LUPPY管理簿.xlsx
+++ b/作業フォルダー/LUPPY/Luupy自動貼り換え作業/bin/Debug/LUPPY管理簿.xlsx
@@ -212,7 +212,7 @@
     <x:t>https://luppy-media-owner.com/0483.html</x:t>
   </x:si>
   <x:si>
-    <x:t>https://members.luppy-media-owner.com/wp-content/uploads/2023/12/LUPPY231207wek.png</x:t>
+    <x:t>https://members.luppy-media-owner.com/wp-content/uploads/2024/01/luppy20240111name.png</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -864,13 +864,13 @@
   </x:sheetData>
   <x:phoneticPr fontId="1"/>
   <x:hyperlinks>
-    <x:hyperlink ref="C2" r:id="rId28"/>
-    <x:hyperlink ref="D2" r:id="rId29"/>
-    <x:hyperlink ref="C3" r:id="rId30"/>
-    <x:hyperlink ref="D3" r:id="rId31"/>
-    <x:hyperlink ref="E4" r:id="rId32"/>
-    <x:hyperlink ref="C4" r:id="rId33"/>
-    <x:hyperlink ref="D4" r:id="rId34"/>
+    <x:hyperlink ref="C2" r:id="rId19"/>
+    <x:hyperlink ref="D2" r:id="rId20"/>
+    <x:hyperlink ref="C3" r:id="rId21"/>
+    <x:hyperlink ref="D3" r:id="rId22"/>
+    <x:hyperlink ref="E4" r:id="rId23"/>
+    <x:hyperlink ref="C4" r:id="rId24"/>
+    <x:hyperlink ref="D4" r:id="rId25"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -984,8 +984,8 @@
   </x:sheetData>
   <x:phoneticPr fontId="1"/>
   <x:hyperlinks>
-    <x:hyperlink ref="B2" r:id="rId35"/>
-    <x:hyperlink ref="C2" r:id="rId36"/>
+    <x:hyperlink ref="B2" r:id="rId26"/>
+    <x:hyperlink ref="C2" r:id="rId27"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/作業フォルダー/LUPPY/Luupy自動貼り換え作業/bin/Debug/LUPPY管理簿.xlsx
+++ b/作業フォルダー/LUPPY/Luupy自動貼り換え作業/bin/Debug/LUPPY管理簿.xlsx
@@ -212,7 +212,7 @@
     <x:t>https://luppy-media-owner.com/0483.html</x:t>
   </x:si>
   <x:si>
-    <x:t>https://members.luppy-media-owner.com/wp-content/uploads/2024/01/luppy20240111name.png</x:t>
+    <x:t>https://members.luppy-media-owner.com/wp-content/uploads/2024/02/LUPPY20240213radio.png</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -864,13 +864,13 @@
   </x:sheetData>
   <x:phoneticPr fontId="1"/>
   <x:hyperlinks>
-    <x:hyperlink ref="C2" r:id="rId19"/>
-    <x:hyperlink ref="D2" r:id="rId20"/>
-    <x:hyperlink ref="C3" r:id="rId21"/>
-    <x:hyperlink ref="D3" r:id="rId22"/>
-    <x:hyperlink ref="E4" r:id="rId23"/>
-    <x:hyperlink ref="C4" r:id="rId24"/>
-    <x:hyperlink ref="D4" r:id="rId25"/>
+    <x:hyperlink ref="C2" r:id="rId28"/>
+    <x:hyperlink ref="D2" r:id="rId29"/>
+    <x:hyperlink ref="C3" r:id="rId30"/>
+    <x:hyperlink ref="D3" r:id="rId31"/>
+    <x:hyperlink ref="E4" r:id="rId32"/>
+    <x:hyperlink ref="C4" r:id="rId33"/>
+    <x:hyperlink ref="D4" r:id="rId34"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -984,8 +984,8 @@
   </x:sheetData>
   <x:phoneticPr fontId="1"/>
   <x:hyperlinks>
-    <x:hyperlink ref="B2" r:id="rId26"/>
-    <x:hyperlink ref="C2" r:id="rId27"/>
+    <x:hyperlink ref="B2" r:id="rId35"/>
+    <x:hyperlink ref="C2" r:id="rId36"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
